--- a/data/Lic 2021_CPC/baichuan.xlsx
+++ b/data/Lic 2021_CPC/baichuan.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\研究生\大模型\对话\改论文\human_result\baichuan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\研究生\大模型\对话\改论文\data\Lic 2021_CPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0767BFC-23A0-4F55-A5AE-03615F8CC920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE634F-BE87-4EC0-98AA-C13785B999C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大模型生成结果" sheetId="1" r:id="rId1"/>
     <sheet name="人工评估结果" sheetId="2" r:id="rId2"/>
+    <sheet name="自动评估结果" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="7833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8089" uniqueCount="7854">
   <si>
     <t>History</t>
   </si>
@@ -23522,13 +23523,79 @@
   <si>
     <t>I usually play football with my friends. I really love soccer, and I go to watch every match. Although my job is quite relaxed, I also have it as part of my work.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>bleu1(略)</t>
+  </si>
+  <si>
+    <t>bleu2(略)</t>
+  </si>
+  <si>
+    <t>distinct1</t>
+  </si>
+  <si>
+    <t>distinct2</t>
+  </si>
+  <si>
+    <t>bleu1</t>
+  </si>
+  <si>
+    <t>bleu2</t>
+  </si>
+  <si>
+    <t>bleu3</t>
+  </si>
+  <si>
+    <t>bleu4</t>
+  </si>
+  <si>
+    <t>meteor</t>
+  </si>
+  <si>
+    <t>rouge1</t>
+  </si>
+  <si>
+    <t>ea(EmbeddingAverageCosineSimilarity)</t>
+  </si>
+  <si>
+    <t>ve(VectorExtremaCosineSimilarity)</t>
+  </si>
+  <si>
+    <t>gm(GreedyMatchingScore)</t>
+  </si>
+  <si>
+    <t>bert-score: P</t>
+  </si>
+  <si>
+    <t>bert-score: R</t>
+  </si>
+  <si>
+    <t>bert-score: F1</t>
+  </si>
+  <si>
+    <t>cider</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>bleurt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23543,6 +23610,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -23552,9 +23627,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF0A415C"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -23564,8 +23657,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -55892,7 +56000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA12495-1221-47AB-85A7-8EFD09FCA3B7}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
@@ -56540,4 +56648,150 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F9834D-8133-4505-B382-A4ECF60209A0}">
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7833</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7834</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7835</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7836</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7837</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7838</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7839</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7840</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7841</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7842</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7843</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7844</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7845</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7846</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7847</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7848</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7849</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7850</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7851</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7852</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-0.28000000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>